--- a/design-pattern-template/total.xlsx
+++ b/design-pattern-template/total.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14325"/>
   </bookViews>
   <sheets>
     <sheet name="表单1" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -67,6 +67,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -95,35 +175,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超级链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超级链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超级链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超级链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超级链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超级链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超级链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超级链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超级链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超级链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超级链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超级链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -135,6 +224,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -427,12 +519,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
